--- a/Dataset, Inventory (MOD).xlsx
+++ b/Dataset, Inventory (MOD).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brydo\Documents\GitHub\Case-Study-Inventory-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBEE5E-9443-42C7-B93D-DCEF185C3800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D9EF9-6F8A-4231-B2E1-DAFE61FECB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BEE27DC-46E9-48FC-A796-773D50842637}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1BEE27DC-46E9-48FC-A796-773D50842637}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="214">
   <si>
     <t>2023_Units_Sold</t>
   </si>
@@ -898,7 +898,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E53BCC2D-594B-4C2D-ACB7-DF25764F7F54}" name="Stock" displayName="Stock" ref="A1:G101" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G101" xr:uid="{E53BCC2D-594B-4C2D-ACB7-DF25764F7F54}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
-    <sortCondition ref="B1:B101"/>
+    <sortCondition ref="A1:A101"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4D88A88F-491B-41EC-9729-F697AD260D18}" name="Product_ID" dataDxfId="6"/>
@@ -1232,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED43C1-69C0-4196-9355-7AF2E1BF82C4}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1268,88 +1268,88 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>179</v>
+        <v>1112</v>
       </c>
       <c r="E2" s="4">
-        <v>271</v>
+        <v>1356</v>
       </c>
       <c r="F2" s="5">
-        <v>11.91</v>
+        <v>1.9</v>
       </c>
       <c r="G2" s="5">
-        <v>7.95</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>1188</v>
+        <v>354</v>
       </c>
       <c r="E3" s="4">
-        <v>1584</v>
+        <v>268</v>
       </c>
       <c r="F3" s="5">
-        <v>3.67</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G3" s="5">
-        <v>2.11</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>515</v>
+        <v>2015</v>
       </c>
       <c r="E4" s="4">
-        <v>444</v>
+        <v>1317</v>
       </c>
       <c r="F4" s="5">
-        <v>4.17</v>
+        <v>0.87</v>
       </c>
       <c r="G4" s="5">
-        <v>2.46</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>1115</v>
+        <v>304</v>
       </c>
       <c r="E5" s="4">
-        <v>1487</v>
+        <v>274</v>
       </c>
       <c r="F5" s="5">
         <v>1.3</v>
@@ -1360,991 +1360,991 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>20874</v>
+        <v>1674</v>
       </c>
       <c r="E6" s="4">
-        <v>16436</v>
+        <v>1691</v>
       </c>
       <c r="F6" s="5">
-        <v>2.4700000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="5">
-        <v>0.98</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
-        <v>808</v>
+        <v>1115</v>
       </c>
       <c r="E7" s="4">
-        <v>777</v>
+        <v>1487</v>
       </c>
       <c r="F7" s="5">
-        <v>1.88</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="5">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>780</v>
+        <v>13231</v>
       </c>
       <c r="E8" s="4">
-        <v>1200</v>
+        <v>13501</v>
       </c>
       <c r="F8" s="5">
-        <v>0.79</v>
+        <v>1.9</v>
       </c>
       <c r="G8" s="5">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4">
-        <v>304</v>
+        <v>604</v>
       </c>
       <c r="E9" s="4">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="F9" s="5">
-        <v>1.3</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G9" s="5">
-        <v>0.42</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>257</v>
+        <v>1238</v>
       </c>
       <c r="E10" s="4">
-        <v>181</v>
+        <v>3259</v>
       </c>
       <c r="F10" s="5">
-        <v>21.78</v>
+        <v>0.97</v>
       </c>
       <c r="G10" s="5">
-        <v>14.96</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>252</v>
+        <v>1614</v>
       </c>
       <c r="E11" s="4">
-        <v>175</v>
+        <v>3842</v>
       </c>
       <c r="F11" s="5">
-        <v>21.78</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G11" s="5">
-        <v>14.14</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>1209</v>
+        <v>494</v>
       </c>
       <c r="E12" s="4">
-        <v>1033</v>
+        <v>705</v>
       </c>
       <c r="F12" s="5">
-        <v>4.3</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G12" s="5">
-        <v>2.5499999999999998</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>304</v>
+        <v>1040</v>
       </c>
       <c r="E13" s="4">
-        <v>217</v>
+        <v>2970</v>
       </c>
       <c r="F13" s="5">
-        <v>21.78</v>
+        <v>3.09</v>
       </c>
       <c r="G13" s="5">
-        <v>14.95</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>1020</v>
+        <v>14279</v>
       </c>
       <c r="E14" s="4">
-        <v>2833</v>
+        <v>10656</v>
       </c>
       <c r="F14" s="5">
-        <v>11.22</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G14" s="5">
-        <v>7.46</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>494</v>
+        <v>1894</v>
       </c>
       <c r="E15" s="4">
-        <v>705</v>
+        <v>1424</v>
       </c>
       <c r="F15" s="5">
-        <v>10.220000000000001</v>
+        <v>18.64</v>
       </c>
       <c r="G15" s="5">
-        <v>6.76</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="4">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="E16" s="4">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="F16" s="5">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="G16" s="5">
-        <v>2.5499999999999998</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
-        <v>557</v>
+        <v>1119</v>
       </c>
       <c r="E17" s="4">
-        <v>530</v>
+        <v>761</v>
       </c>
       <c r="F17" s="5">
-        <v>1.3</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G17" s="5">
-        <v>0.42</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="4">
-        <v>2238</v>
+        <v>286</v>
       </c>
       <c r="E18" s="4">
-        <v>1502</v>
+        <v>225</v>
       </c>
       <c r="F18" s="5">
-        <v>4.8600000000000003</v>
+        <v>18.68</v>
       </c>
       <c r="G18" s="5">
-        <v>2.94</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4">
-        <v>1428</v>
+        <v>1461</v>
       </c>
       <c r="E19" s="4">
-        <v>2974</v>
+        <v>1150</v>
       </c>
       <c r="F19" s="5">
-        <v>4.3</v>
+        <v>18.68</v>
       </c>
       <c r="G19" s="5">
-        <v>2.56</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4">
-        <v>1461</v>
+        <v>84</v>
       </c>
       <c r="E20" s="4">
-        <v>1150</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5">
-        <v>18.68</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G20" s="5">
-        <v>12.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4">
-        <v>1443</v>
+        <v>2468</v>
       </c>
       <c r="E21" s="4">
-        <v>1031</v>
+        <v>2373</v>
       </c>
       <c r="F21" s="5">
-        <v>3.88</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G21" s="5">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="4">
-        <v>1610</v>
+        <v>257</v>
       </c>
       <c r="E22" s="4">
-        <v>1142</v>
+        <v>181</v>
       </c>
       <c r="F22" s="5">
-        <v>2.4700000000000002</v>
+        <v>21.78</v>
       </c>
       <c r="G22" s="5">
-        <v>1.26</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4">
-        <v>1674</v>
+        <v>128</v>
       </c>
       <c r="E23" s="4">
-        <v>1691</v>
+        <v>171</v>
       </c>
       <c r="F23" s="5">
-        <v>0.8</v>
+        <v>6.64</v>
       </c>
       <c r="G23" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4">
-        <v>286</v>
+        <v>109</v>
       </c>
       <c r="F24" s="5">
-        <v>13.87</v>
+        <v>12.65</v>
       </c>
       <c r="G24" s="5">
-        <v>9.34</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D25" s="4">
-        <v>191</v>
+        <v>1443</v>
       </c>
       <c r="E25" s="4">
-        <v>465</v>
+        <v>1031</v>
       </c>
       <c r="F25" s="5">
-        <v>22.97</v>
+        <v>3.88</v>
       </c>
       <c r="G25" s="5">
-        <v>15.79</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4">
-        <v>961</v>
+        <v>304</v>
       </c>
       <c r="E26" s="4">
-        <v>728</v>
+        <v>217</v>
       </c>
       <c r="F26" s="5">
-        <v>3.03</v>
+        <v>21.78</v>
       </c>
       <c r="G26" s="5">
-        <v>1.66</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="4">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E27" s="4">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="F27" s="5">
-        <v>1.88</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G27" s="5">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4">
-        <v>2468</v>
+        <v>114</v>
       </c>
       <c r="E28" s="4">
-        <v>2373</v>
+        <v>148</v>
       </c>
       <c r="F28" s="5">
-        <v>4.8600000000000003</v>
+        <v>5.99</v>
       </c>
       <c r="G28" s="5">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="4">
-        <v>195</v>
+        <v>4708</v>
       </c>
       <c r="E29" s="4">
-        <v>181</v>
+        <v>5062</v>
       </c>
       <c r="F29" s="5">
-        <v>3.67</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G29" s="5">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D30" s="4">
-        <v>1040</v>
+        <v>252</v>
       </c>
       <c r="E30" s="4">
-        <v>2970</v>
+        <v>175</v>
       </c>
       <c r="F30" s="5">
-        <v>3.09</v>
+        <v>21.78</v>
       </c>
       <c r="G30" s="5">
-        <v>1.69</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
-        <v>4708</v>
+        <v>961</v>
       </c>
       <c r="E31" s="4">
-        <v>5062</v>
+        <v>728</v>
       </c>
       <c r="F31" s="5">
-        <v>2.4700000000000002</v>
+        <v>3.03</v>
       </c>
       <c r="G31" s="5">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="4">
-        <v>929</v>
+        <v>2238</v>
       </c>
       <c r="E32" s="4">
-        <v>1223</v>
+        <v>1502</v>
       </c>
       <c r="F32" s="5">
-        <v>19.440000000000001</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G32" s="5">
-        <v>13.28</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4">
-        <v>442</v>
+        <v>3539</v>
       </c>
       <c r="E33" s="4">
-        <v>470</v>
+        <v>2974</v>
       </c>
       <c r="F33" s="5">
-        <v>2.4700000000000002</v>
+        <v>3.31</v>
       </c>
       <c r="G33" s="5">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="4">
-        <v>84</v>
+        <v>1266</v>
       </c>
       <c r="E34" s="4">
-        <v>114</v>
+        <v>1101</v>
       </c>
       <c r="F34" s="5">
-        <v>10.220000000000001</v>
+        <v>5.34</v>
       </c>
       <c r="G34" s="5">
-        <v>6.75</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4">
-        <v>2369</v>
+        <v>569</v>
       </c>
       <c r="E35" s="4">
-        <v>1942</v>
+        <v>662</v>
       </c>
       <c r="F35" s="5">
-        <v>12.39</v>
+        <v>1.9</v>
       </c>
       <c r="G35" s="5">
-        <v>8.2899999999999991</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D36" s="4">
-        <v>2905</v>
+        <v>150</v>
       </c>
       <c r="E36" s="4">
-        <v>2441</v>
+        <v>251</v>
       </c>
       <c r="F36" s="5">
-        <v>1.3</v>
+        <v>70.5</v>
       </c>
       <c r="G36" s="5">
-        <v>0.42</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="4">
-        <v>274</v>
+        <v>1020</v>
       </c>
       <c r="E37" s="4">
-        <v>254</v>
+        <v>2833</v>
       </c>
       <c r="F37" s="5">
-        <v>3.88</v>
+        <v>11.22</v>
       </c>
       <c r="G37" s="5">
-        <v>2.0699999999999998</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D38" s="4">
-        <v>1835</v>
+        <v>1428</v>
       </c>
       <c r="E38" s="4">
-        <v>2514</v>
+        <v>2974</v>
       </c>
       <c r="F38" s="5">
-        <v>4.17</v>
+        <v>4.3</v>
       </c>
       <c r="G38" s="5">
-        <v>2.4500000000000002</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="E39" s="4">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="F39" s="5">
-        <v>3.67</v>
+        <v>4.3</v>
       </c>
       <c r="G39" s="5">
-        <v>2.11</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D40" s="4">
-        <v>569</v>
+        <v>2534</v>
       </c>
       <c r="E40" s="4">
-        <v>662</v>
+        <v>3569</v>
       </c>
       <c r="F40" s="5">
-        <v>1.9</v>
+        <v>4.17</v>
       </c>
       <c r="G40" s="5">
-        <v>0.85</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4">
-        <v>1894</v>
+        <v>780</v>
       </c>
       <c r="E41" s="4">
-        <v>1424</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="5">
-        <v>18.64</v>
+        <v>0.79</v>
       </c>
       <c r="G41" s="5">
-        <v>12.72</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D42" s="4">
-        <v>286</v>
+        <v>20874</v>
       </c>
       <c r="E42" s="4">
-        <v>225</v>
+        <v>16436</v>
       </c>
       <c r="F42" s="5">
-        <v>18.68</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G42" s="5">
-        <v>12.75</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="4">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="E43" s="4">
-        <v>121</v>
+        <v>465</v>
       </c>
       <c r="F43" s="5">
-        <v>4.8600000000000003</v>
+        <v>22.97</v>
       </c>
       <c r="G43" s="5">
-        <v>2.96</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4">
-        <v>203</v>
+        <v>929</v>
       </c>
       <c r="E44" s="4">
-        <v>180</v>
+        <v>1223</v>
       </c>
       <c r="F44" s="5">
-        <v>4.22</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="G44" s="5">
-        <v>2.4900000000000002</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="4">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E45" s="4">
-        <v>340</v>
+        <v>1253</v>
       </c>
       <c r="F45" s="5">
-        <v>4.3</v>
+        <v>3.03</v>
       </c>
       <c r="G45" s="5">
-        <v>2.5499999999999998</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46" s="4">
-        <v>1238</v>
+        <v>195</v>
       </c>
       <c r="E46" s="4">
-        <v>3259</v>
+        <v>181</v>
       </c>
       <c r="F46" s="5">
-        <v>0.97</v>
+        <v>3.67</v>
       </c>
       <c r="G46" s="5">
-        <v>0.19</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="4">
-        <v>354</v>
+        <v>1209</v>
       </c>
       <c r="E47" s="4">
-        <v>268</v>
+        <v>1033</v>
       </c>
       <c r="F47" s="5">
-        <v>1.1100000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="G47" s="5">
-        <v>0.28999999999999998</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="4">
-        <v>140</v>
+        <v>505</v>
       </c>
       <c r="E48" s="4">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="F48" s="5">
-        <v>11.91</v>
+        <v>24.6</v>
       </c>
       <c r="G48" s="5">
-        <v>7.95</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.35">
@@ -2372,1198 +2372,1198 @@
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="4">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="E50" s="4">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="F50" s="5">
-        <v>11.91</v>
+        <v>7.68</v>
       </c>
       <c r="G50" s="5">
-        <v>7.96</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="4">
-        <v>150</v>
+        <v>3538</v>
       </c>
       <c r="E51" s="4">
-        <v>251</v>
+        <v>3276</v>
       </c>
       <c r="F51" s="5">
-        <v>70.5</v>
+        <v>5.29</v>
       </c>
       <c r="G51" s="5">
-        <v>49.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D52" s="4">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="E52" s="4">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="F52" s="5">
-        <v>12.44</v>
+        <v>3.88</v>
       </c>
       <c r="G52" s="5">
-        <v>8.24</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="4">
-        <v>84</v>
+        <v>599</v>
       </c>
       <c r="E53" s="4">
-        <v>127</v>
+        <v>1303</v>
       </c>
       <c r="F53" s="5">
-        <v>9.66</v>
+        <v>4.78</v>
       </c>
       <c r="G53" s="5">
-        <v>6.35</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4">
-        <v>1263</v>
+        <v>2949</v>
       </c>
       <c r="E54" s="4">
-        <v>1128</v>
+        <v>2478</v>
       </c>
       <c r="F54" s="5">
-        <v>2.4700000000000002</v>
+        <v>6.56</v>
       </c>
       <c r="G54" s="5">
-        <v>1.26</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="4">
-        <v>2015</v>
+        <v>1427</v>
       </c>
       <c r="E55" s="4">
-        <v>1317</v>
+        <v>1586</v>
       </c>
       <c r="F55" s="5">
-        <v>0.87</v>
+        <v>3.64</v>
       </c>
       <c r="G55" s="5">
-        <v>0.12</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4">
-        <v>1427</v>
+        <v>1188</v>
       </c>
       <c r="E56" s="4">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="F56" s="5">
-        <v>3.64</v>
+        <v>3.67</v>
       </c>
       <c r="G56" s="5">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="4">
-        <v>2496</v>
+        <v>1835</v>
       </c>
       <c r="E57" s="4">
-        <v>1891</v>
+        <v>2514</v>
       </c>
       <c r="F57" s="5">
-        <v>2.89</v>
+        <v>4.17</v>
       </c>
       <c r="G57" s="5">
-        <v>1.55</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4">
-        <v>160</v>
+        <v>3306</v>
       </c>
       <c r="E58" s="4">
-        <v>117</v>
+        <v>3273</v>
       </c>
       <c r="F58" s="5">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="G58" s="5">
-        <v>1.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D59" s="4">
-        <v>440</v>
+        <v>1050</v>
       </c>
       <c r="E59" s="4">
-        <v>917</v>
+        <v>729</v>
       </c>
       <c r="F59" s="5">
-        <v>13.32</v>
+        <v>15.92</v>
       </c>
       <c r="G59" s="5">
-        <v>8.9499999999999993</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D60" s="4">
-        <v>299</v>
+        <v>692</v>
       </c>
       <c r="E60" s="4">
-        <v>197</v>
+        <v>1033</v>
       </c>
       <c r="F60" s="5">
-        <v>6.68</v>
+        <v>1.88</v>
       </c>
       <c r="G60" s="5">
-        <v>4.25</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D61" s="4">
-        <v>1614</v>
+        <v>203</v>
       </c>
       <c r="E61" s="4">
-        <v>3842</v>
+        <v>180</v>
       </c>
       <c r="F61" s="5">
-        <v>2.4700000000000002</v>
+        <v>4.22</v>
       </c>
       <c r="G61" s="5">
-        <v>1.25</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D62" s="4">
-        <v>359</v>
+        <v>557</v>
       </c>
       <c r="E62" s="4">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="F62" s="5">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="G62" s="5">
-        <v>0.79</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D63" s="4">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E63" s="4">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="F63" s="5">
-        <v>10.5</v>
+        <v>1.88</v>
       </c>
       <c r="G63" s="5">
-        <v>6.95</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>101</v>
+        <v>2789</v>
       </c>
       <c r="E64" s="4">
-        <v>109</v>
+        <v>2936</v>
       </c>
       <c r="F64" s="5">
-        <v>12.65</v>
+        <v>1.25</v>
       </c>
       <c r="G64" s="5">
-        <v>8.48</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D65" s="4">
-        <v>555</v>
+        <v>2496</v>
       </c>
       <c r="E65" s="4">
-        <v>566</v>
+        <v>1891</v>
       </c>
       <c r="F65" s="5">
-        <v>1.3</v>
+        <v>2.89</v>
       </c>
       <c r="G65" s="5">
-        <v>0.43</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D66" s="4">
-        <v>3538</v>
+        <v>160</v>
       </c>
       <c r="E66" s="4">
-        <v>3276</v>
+        <v>117</v>
       </c>
       <c r="F66" s="5">
-        <v>5.29</v>
+        <v>2.75</v>
       </c>
       <c r="G66" s="5">
-        <v>3.25</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D67" s="4">
-        <v>3539</v>
+        <v>163</v>
       </c>
       <c r="E67" s="4">
-        <v>2974</v>
+        <v>363</v>
       </c>
       <c r="F67" s="5">
-        <v>3.31</v>
+        <v>1.9</v>
       </c>
       <c r="G67" s="5">
-        <v>1.86</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D68" s="4">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="E68" s="4">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="F68" s="5">
-        <v>3.45</v>
+        <v>6.53</v>
       </c>
       <c r="G68" s="5">
-        <v>1.95</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="4">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E69" s="4">
-        <v>387</v>
+        <v>917</v>
       </c>
       <c r="F69" s="5">
-        <v>3.45</v>
+        <v>13.32</v>
       </c>
       <c r="G69" s="5">
-        <v>1.96</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D70" s="4">
-        <v>14279</v>
+        <v>507</v>
       </c>
       <c r="E70" s="4">
-        <v>10656</v>
+        <v>340</v>
       </c>
       <c r="F70" s="5">
-        <v>2.4700000000000002</v>
+        <v>4.3</v>
       </c>
       <c r="G70" s="5">
-        <v>1.25</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="4">
-        <v>3306</v>
+        <v>122</v>
       </c>
       <c r="E71" s="4">
-        <v>3273</v>
+        <v>121</v>
       </c>
       <c r="F71" s="5">
-        <v>1.25</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G71" s="5">
-        <v>0.39</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="4">
-        <v>1266</v>
+        <v>392</v>
       </c>
       <c r="E72" s="4">
-        <v>1101</v>
+        <v>274</v>
       </c>
       <c r="F72" s="5">
-        <v>5.34</v>
+        <v>0.97</v>
       </c>
       <c r="G72" s="5">
-        <v>3.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="4">
-        <v>125</v>
+        <v>2905</v>
       </c>
       <c r="E73" s="4">
-        <v>107</v>
+        <v>2441</v>
       </c>
       <c r="F73" s="5">
-        <v>5.99</v>
+        <v>1.3</v>
       </c>
       <c r="G73" s="5">
-        <v>3.75</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="4">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="E74" s="4">
-        <v>258</v>
+        <v>367</v>
       </c>
       <c r="F74" s="5">
-        <v>1.88</v>
+        <v>7.7</v>
       </c>
       <c r="G74" s="5">
-        <v>0.84</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D75" s="4">
-        <v>501</v>
+        <v>359</v>
       </c>
       <c r="E75" s="4">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="F75" s="5">
-        <v>14.48</v>
+        <v>1.82</v>
       </c>
       <c r="G75" s="5">
-        <v>9.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D76" s="4">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="E76" s="4">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="F76" s="5">
-        <v>7.68</v>
+        <v>3.45</v>
       </c>
       <c r="G76" s="5">
-        <v>4.95</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D77" s="4">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E77" s="4">
-        <v>363</v>
+        <v>107</v>
       </c>
       <c r="F77" s="5">
-        <v>1.9</v>
+        <v>5.99</v>
       </c>
       <c r="G77" s="5">
-        <v>0.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="4">
-        <v>1119</v>
+        <v>429</v>
       </c>
       <c r="E78" s="4">
-        <v>761</v>
+        <v>493</v>
       </c>
       <c r="F78" s="5">
-        <v>2.4700000000000002</v>
+        <v>3.09</v>
       </c>
       <c r="G78" s="5">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="4">
-        <v>2534</v>
+        <v>84</v>
       </c>
       <c r="E79" s="4">
-        <v>3569</v>
+        <v>127</v>
       </c>
       <c r="F79" s="5">
-        <v>4.17</v>
+        <v>9.66</v>
       </c>
       <c r="G79" s="5">
-        <v>2.4700000000000002</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D80" s="4">
-        <v>126</v>
+        <v>555</v>
       </c>
       <c r="E80" s="4">
-        <v>98</v>
+        <v>566</v>
       </c>
       <c r="F80" s="5">
-        <v>5.39</v>
+        <v>1.3</v>
       </c>
       <c r="G80" s="5">
-        <v>3.32</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="4">
-        <v>514</v>
+        <v>2369</v>
       </c>
       <c r="E81" s="4">
-        <v>1253</v>
+        <v>1942</v>
       </c>
       <c r="F81" s="5">
-        <v>3.03</v>
+        <v>12.39</v>
       </c>
       <c r="G81" s="5">
-        <v>1.65</v>
+        <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="4">
-        <v>56</v>
+        <v>1610</v>
       </c>
       <c r="E82" s="4">
-        <v>37</v>
+        <v>1142</v>
       </c>
       <c r="F82" s="5">
-        <v>1.9</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G82" s="5">
-        <v>0.86</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="4">
-        <v>25</v>
+        <v>808</v>
       </c>
       <c r="E83" s="4">
-        <v>65</v>
+        <v>777</v>
       </c>
       <c r="F83" s="5">
-        <v>4.79</v>
+        <v>1.88</v>
       </c>
       <c r="G83" s="5">
-        <v>2.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>129</v>
+      <c r="A84" s="1">
+        <v>85136</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="4">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="E84" s="4">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="F84" s="5">
-        <v>3.09</v>
+        <v>11.91</v>
       </c>
       <c r="G84" s="5">
-        <v>1.42</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D85" s="4">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="E85" s="4">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="F85" s="5">
-        <v>7.7</v>
+        <v>11.91</v>
       </c>
       <c r="G85" s="5">
-        <v>4.96</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D86" s="4">
-        <v>2789</v>
+        <v>312</v>
       </c>
       <c r="E86" s="4">
-        <v>2936</v>
+        <v>240</v>
       </c>
       <c r="F86" s="5">
-        <v>1.25</v>
+        <v>3.67</v>
       </c>
       <c r="G86" s="5">
-        <v>0.39</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="4">
-        <v>1112</v>
+        <v>299</v>
       </c>
       <c r="E87" s="4">
-        <v>1356</v>
+        <v>197</v>
       </c>
       <c r="F87" s="5">
-        <v>1.9</v>
+        <v>6.68</v>
       </c>
       <c r="G87" s="5">
-        <v>0.84</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D88" s="4">
-        <v>13231</v>
+        <v>501</v>
       </c>
       <c r="E88" s="4">
-        <v>13501</v>
+        <v>363</v>
       </c>
       <c r="F88" s="5">
-        <v>1.9</v>
+        <v>14.48</v>
       </c>
       <c r="G88" s="5">
-        <v>0.86</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D89" s="4">
-        <v>692</v>
+        <v>92</v>
       </c>
       <c r="E89" s="4">
-        <v>1033</v>
+        <v>219</v>
       </c>
       <c r="F89" s="5">
-        <v>1.88</v>
+        <v>6.56</v>
       </c>
       <c r="G89" s="5">
-        <v>0.83</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D90" s="4">
-        <v>429</v>
+        <v>140</v>
       </c>
       <c r="E90" s="4">
-        <v>493</v>
+        <v>108</v>
       </c>
       <c r="F90" s="5">
-        <v>3.09</v>
+        <v>11.91</v>
       </c>
       <c r="G90" s="5">
-        <v>1.7</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D91" s="4">
-        <v>332</v>
+        <v>1263</v>
       </c>
       <c r="E91" s="4">
-        <v>342</v>
+        <v>1128</v>
       </c>
       <c r="F91" s="5">
-        <v>6.53</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G91" s="5">
-        <v>4.13</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="4">
-        <v>392</v>
+        <v>86</v>
       </c>
       <c r="E92" s="4">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="F92" s="5">
-        <v>0.97</v>
+        <v>3.09</v>
       </c>
       <c r="G92" s="5">
-        <v>0.2</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="4">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="E93" s="4">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F93" s="5">
-        <v>6.56</v>
+        <v>9.09</v>
       </c>
       <c r="G93" s="5">
-        <v>4.16</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D94" s="4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="E94" s="4">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F94" s="5">
-        <v>5.99</v>
+        <v>1.9</v>
       </c>
       <c r="G94" s="5">
-        <v>3.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D95" s="4">
-        <v>599</v>
+        <v>515</v>
       </c>
       <c r="E95" s="4">
-        <v>1303</v>
+        <v>444</v>
       </c>
       <c r="F95" s="5">
-        <v>4.78</v>
+        <v>4.17</v>
       </c>
       <c r="G95" s="5">
-        <v>2.89</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="4">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="E96" s="4">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="F96" s="5">
-        <v>9.09</v>
+        <v>10.5</v>
       </c>
       <c r="G96" s="5">
-        <v>5.95</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D97" s="4">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="E97" s="4">
-        <v>377</v>
+        <v>286</v>
       </c>
       <c r="F97" s="5">
-        <v>24.6</v>
+        <v>13.87</v>
       </c>
       <c r="G97" s="5">
-        <v>13.26</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D98" s="4">
-        <v>1050</v>
+        <v>170</v>
       </c>
       <c r="E98" s="4">
-        <v>729</v>
+        <v>126</v>
       </c>
       <c r="F98" s="5">
-        <v>15.92</v>
+        <v>12.44</v>
       </c>
       <c r="G98" s="5">
-        <v>10.79</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D99" s="4">
-        <v>2949</v>
+        <v>25</v>
       </c>
       <c r="E99" s="4">
-        <v>2478</v>
+        <v>65</v>
       </c>
       <c r="F99" s="5">
-        <v>6.56</v>
+        <v>4.79</v>
       </c>
       <c r="G99" s="5">
-        <v>4.1500000000000004</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D100" s="4">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E100" s="4">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="F100" s="5">
-        <v>6.64</v>
+        <v>5.39</v>
       </c>
       <c r="G100" s="5">
-        <v>4.21</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="4">
-        <v>604</v>
+        <v>408</v>
       </c>
       <c r="E101" s="4">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="F101" s="5">
-        <v>4.8600000000000003</v>
+        <v>1.88</v>
       </c>
       <c r="G101" s="5">
-        <v>2.95</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -3579,7 +3579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B3B2B1-0E66-47F6-BC67-A208463E66CA}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
